--- a/generated_invoice_sandbox.xlsx
+++ b/generated_invoice_sandbox.xlsx
@@ -1020,7 +1020,7 @@
       </c>
       <c r="G8" s="44" t="inlineStr">
         <is>
-          <t>4242880DI1752076743723</t>
+          <t>4242880DI1752648778822</t>
         </is>
       </c>
     </row>
